--- a/data/trans_dic/P35A_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P35A_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha dado un atracón de alcohol en las últimas 2 semanas alguna o varias veces</t>
+          <t>Población que se ha dado un atracón de alcohol en las últimas 2 semanas alguna o varias veces (tasa de respuesta: 99,62%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7,31%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8,56%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10,31%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,62; 17,01</t>
+          <t>3,09; 10,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,38; 19,77</t>
+          <t>5,42; 15,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,84; 19,38</t>
+          <t>5,47; 16,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,49; 12,1</t>
+          <t>7,28; 20,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,12; 17,75</t>
+          <t>2,4; 8,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,12; 17,93</t>
+          <t>2,55; 10,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,05; 12,89</t>
+          <t>4,02; 11,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,77; 16,95</t>
+          <t>4,35; 14,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,88; 17,2</t>
+          <t>3,43; 7,94</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4,75; 10,79</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5,8; 12,09</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 14,3</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,58%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,84%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7,7%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11,63%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,98; 22,04</t>
+          <t>6,42; 18,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,43; 28,33</t>
+          <t>8,33; 21,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,7; 31,13</t>
+          <t>7,36; 21,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 11,93</t>
+          <t>10,23; 26,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,78; 32,53</t>
+          <t>1,0; 6,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 12,67</t>
+          <t>1,87; 8,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,44; 16,36</t>
+          <t>1,12; 7,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,11; 26,03</t>
+          <t>3,7; 11,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,88; 23,1</t>
+          <t>4,29; 10,4</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5,75; 12,56</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4,6; 11,55</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7,95; 17,12</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>8,67%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,72%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>8,15%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 25,84</t>
+          <t>0,0; 24,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 34,08</t>
+          <t>0,0; 24,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,79; 34,89</t>
+          <t>2,6; 29,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 38,72</t>
+          <t>0,0; 18,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 34,63</t>
+          <t>3,02; 25,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,77</t>
+          <t>2,61; 24,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,67; 24,36</t>
+          <t>0,0; 12,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,36; 27,5</t>
+          <t>3,05; 24,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,89; 26,08</t>
+          <t>3,23; 19,91</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 17,23</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 18,95</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,01; 17,15</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>6,25%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7,88%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8,07%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10,6%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,52; 17,12</t>
+          <t>5,66; 11,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,44; 22,01</t>
+          <t>7,5; 14,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,16; 22,18</t>
+          <t>7,61; 16,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 11,07</t>
+          <t>9,51; 18,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,08; 18,79</t>
+          <t>2,98; 7,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,95; 13,07</t>
+          <t>3,32; 8,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,8; 13,18</t>
+          <t>3,33; 8,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,21; 18,81</t>
+          <t>5,31; 10,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,25; 17,48</t>
+          <t>4,64; 8,39</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5,98; 10,15</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 10,61</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8,14; 13,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha dado un atracón de alcohol en las últimas 2 semanas alguna o varias veces (tasa de respuesta: 99,62%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>25859</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>34386</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>37277</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>67296</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>25336</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>23059</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>28270</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>42677</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>51195</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>57445</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>65548</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>109973</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13303; 46254</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>19834; 55754</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>20008; 61746</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>37056; 102549</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12190; 42967</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10709; 41984</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16099; 45909</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24220; 78851</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>32162; 74556</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>37287; 84793</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>44407; 92579</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>73811; 152484</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>39820</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>43713</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>39835</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>68254</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11906</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14226</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10808</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>29807</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>51726</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>57939</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>50643</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>98061</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>23072; 65402</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>26532; 68193</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>23728; 68766</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>42180; 107631</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4233; 27120</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6292; 28364</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3743; 23454</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15933; 50546</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>33632; 81584</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>37636; 82264</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>30281; 75955</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>67044; 144366</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7561</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3566</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9519</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6332</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9744</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7262</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2486</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12314</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17305</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10828</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>12005</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>18646</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 24380</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19537</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2229; 24885</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 22004</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3058; 25885</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2131; 19691</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10214</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3334; 26551</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6452; 39720</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3012; 27769</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3017; 31244</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6899; 39251</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>73240</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>81665</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>86632</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>141882</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>46986</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>44547</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>41564</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>84798</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>120225</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>126212</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>128196</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>226680</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>50225; 103994</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>57298; 110306</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>58851; 124027</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>98975; 194189</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>30808; 73383</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>27785; 67717</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>27123; 66169</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>58289; 119739</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>89264; 161367</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>95720; 162526</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>97754; 168560</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>174194; 289817</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
